--- a/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
+++ b/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cvmqc-my.sharepoint.com/personal/e_akhaoua_etu_cvm_qc_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2225897\Desktop\C61_SHOGI_RAG\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C00B6FF-EDFF-47FB-8F70-CDB17C00F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E6C38C-D1FA-4874-B7B3-93D75E313BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="1" xr2:uid="{0139C51A-36D8-4FB0-B647-CB90E1DC24D3}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="115">
   <si>
     <t>Planification globale</t>
   </si>
@@ -391,7 +391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,18 +644,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -668,6 +656,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -689,7 +689,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -991,20 +991,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+    <col min="3" max="4" width="20.54296875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.65" customHeight="1">
+    <row r="1" spans="1:5" ht="44.65" customHeight="1" x14ac:dyDescent="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="46.7" customHeight="1">
+    <row r="3" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1018,262 +1018,262 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="41" t="s">
+      <c r="D19" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="41" t="s">
+      <c r="D20" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>5</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>6</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>7</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>8</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>9</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>10</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>11</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>12</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>13</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>14</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>15</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>16</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <v>17</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <v>18</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <v>19</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <v>20</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <v>21</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <v>22</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <v>23</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <v>24</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <v>25</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <v>26</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <v>27</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <v>28</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <v>29</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <v>30</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <v>31</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <v>32</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <v>33</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <v>34</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <v>35</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <v>36</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <v>37</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <v>38</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <v>39</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <v>40</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <v>41</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <v>42</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <v>43</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <v>44</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <v>45</v>
       </c>
@@ -1998,7 +1998,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
     </row>
-    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <v>46</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <v>47</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
     </row>
-    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <v>48</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <v>49</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
     </row>
-    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <v>50</v>
       </c>
@@ -2043,7 +2043,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <v>51</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
     </row>
-    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <v>52</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <v>53</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
     </row>
-    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <v>54</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <v>55</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
     </row>
-    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <v>56</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <v>57</v>
       </c>
@@ -2106,7 +2106,7 @@
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
     </row>
-    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <v>58</v>
       </c>
@@ -2115,7 +2115,7 @@
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <v>59</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
     </row>
-    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <v>60</v>
       </c>
@@ -2133,223 +2133,223 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="3"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
     </row>
-    <row r="81" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="3"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="3"/>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="3"/>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="3"/>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="3"/>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="3"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="3"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="3"/>
       <c r="C88" s="15"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="3"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="3"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="3"/>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="3"/>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="3"/>
       <c r="C94" s="15"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="3"/>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="3"/>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="3"/>
       <c r="C98" s="15"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="3"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="3"/>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="3"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="3"/>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="3"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="3"/>
       <c r="C105" s="15"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="3"/>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="3"/>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="3"/>
       <c r="C108" s="15"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="3"/>
       <c r="C109" s="15"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="3"/>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="3"/>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="3"/>
       <c r="C112" s="15"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="3"/>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="3"/>
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="3"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="3"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -2372,29 +2372,29 @@
   <dimension ref="B1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="45.95">
+    <row r="1" spans="2:12" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -2413,7 +2413,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="21">
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2448,41 +2448,41 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="21.6" customHeight="1">
+    <row r="5" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="33" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="34">
         <v>1</v>
       </c>
       <c r="F5" s="5"/>
       <c r="I5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12" ht="21.6" customHeight="1">
+    <row r="6" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
         <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="34">
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
       <c r="I6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" ht="21.6" customHeight="1">
+    <row r="7" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2492,135 +2492,137 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="34">
         <v>1</v>
       </c>
       <c r="F7" s="5"/>
       <c r="I7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12" ht="21.6" customHeight="1">
+    <row r="8" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="34">
         <v>1</v>
       </c>
       <c r="F8" s="5"/>
       <c r="I8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" ht="21.6" customHeight="1">
+    <row r="9" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="34">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
       <c r="I9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" ht="21.6" customHeight="1">
+    <row r="10" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="34">
         <v>1</v>
       </c>
       <c r="I10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12" ht="21.6" customHeight="1">
+    <row r="11" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="34">
         <v>1</v>
       </c>
       <c r="I11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12" ht="21.6" customHeight="1">
+    <row r="12" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="34">
         <v>1</v>
       </c>
       <c r="I12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12" ht="21.6" customHeight="1">
+    <row r="13" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="34">
         <v>1</v>
       </c>
       <c r="I13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:12" ht="21.6" customHeight="1">
+    <row r="14" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="34">
         <v>1</v>
       </c>
       <c r="I14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:12" ht="21.6" customHeight="1">
+    <row r="15" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>95</v>
       </c>
       <c r="F15" s="5"/>
@@ -2628,12 +2630,12 @@
       <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="34">
         <v>1</v>
       </c>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="2:12" ht="21.6" customHeight="1">
+    <row r="16" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -2645,12 +2647,12 @@
       <c r="J16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="34">
         <v>1</v>
       </c>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="21.6" customHeight="1">
+    <row r="17" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2662,12 +2664,12 @@
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="34">
         <v>1</v>
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="21.6" customHeight="1">
+    <row r="18" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -2679,12 +2681,12 @@
       <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="34">
         <v>1</v>
       </c>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12" ht="21.6" customHeight="1">
+    <row r="19" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2696,12 +2698,12 @@
       <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="34">
         <v>1</v>
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12" ht="21.6" customHeight="1">
+    <row r="20" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
@@ -2713,187 +2715,187 @@
       <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="34">
         <v>1</v>
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" ht="21.6" customHeight="1">
+    <row r="21" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
       <c r="I21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12" ht="21.6" customHeight="1">
+    <row r="22" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
       <c r="I22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12" ht="21.6" customHeight="1">
+    <row r="23" spans="2:12" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
       <c r="I23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
       <c r="I24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
       <c r="I25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="F26" s="5"/>
       <c r="I26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="F27" s="5"/>
       <c r="I27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="F28" s="5"/>
       <c r="I28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="F29" s="5"/>
       <c r="I29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="F30" s="5"/>
       <c r="I30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="F31" s="5"/>
       <c r="I31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="F32" s="5"/>
       <c r="I32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="F33" s="5"/>
       <c r="I33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="F34" s="5"/>
       <c r="I34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="F35" s="5"/>
       <c r="I35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="F36" s="5"/>
       <c r="I36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="F37" s="5"/>
       <c r="I37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="F38" s="5"/>
       <c r="I38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="F39" s="5"/>
       <c r="I39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="F40" s="5"/>
       <c r="I40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="F41" s="5"/>
       <c r="I41" s="5"/>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="5"/>
       <c r="F42" s="5"/>
       <c r="I42" s="5"/>
       <c r="L42" s="5"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="C43" s="5"/>
       <c r="F43" s="5"/>
       <c r="I43" s="5"/>
       <c r="L43" s="5"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="C44" s="5"/>
       <c r="F44" s="5"/>
       <c r="I44" s="5"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="5"/>
       <c r="F45" s="5"/>
       <c r="I45" s="5"/>
       <c r="L45" s="5"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="5"/>
       <c r="F46" s="5"/>
@@ -2913,54 +2915,54 @@
       <selection activeCell="D9" sqref="D9:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="10" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="10" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45.95">
+    <row r="1" spans="1:12" ht="46" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="21">
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-    </row>
-    <row r="4" spans="1:12" ht="21">
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="17" t="s">
         <v>98</v>
       </c>
@@ -2989,7 +2991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1">
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>99</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="K5" s="27"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1">
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
         <v>101</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1">
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
         <v>102</v>
       </c>
@@ -3052,7 +3054,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
         <v>103</v>
       </c>
@@ -3073,7 +3075,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
         <v>104</v>
       </c>
@@ -3094,7 +3096,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1">
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18" t="s">
         <v>105</v>
       </c>
@@ -3115,7 +3117,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>107</v>
       </c>
@@ -3136,7 +3138,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1">
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="26"/>
@@ -3149,7 +3151,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1">
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>40</v>
       </c>
@@ -3170,7 +3172,7 @@
       <c r="K13" s="27"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1">
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>41</v>
       </c>
@@ -3191,7 +3193,7 @@
       <c r="K14" s="27"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1">
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>109</v>
       </c>
@@ -3210,7 +3212,7 @@
       <c r="K15" s="27"/>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1">
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>110</v>
       </c>
@@ -3229,7 +3231,7 @@
       <c r="K16" s="27"/>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1">
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>111</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="K17" s="27"/>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1">
+    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="26"/>
@@ -3261,7 +3263,7 @@
       <c r="K18" s="27"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1">
+    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
@@ -3282,7 +3284,7 @@
       <c r="K19" s="27"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1">
+    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>30</v>
       </c>
@@ -3301,7 +3303,7 @@
       <c r="K20" s="27"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="2:12" ht="21" customHeight="1">
+    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>32</v>
       </c>
@@ -3320,7 +3322,7 @@
       <c r="K21" s="27"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1">
+    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23" t="s">
         <v>33</v>
       </c>
@@ -3339,7 +3341,7 @@
       <c r="K22" s="27"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1">
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>34</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="K23" s="27"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="2:12" ht="21" customHeight="1">
+    <row r="24" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>36</v>
       </c>
@@ -3377,7 +3379,7 @@
       <c r="K24" s="27"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="2:12" ht="21" customHeight="1">
+    <row r="25" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3398,7 @@
       <c r="K25" s="27"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="2:12" ht="21" customHeight="1">
+    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="K26" s="27"/>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="2:12" ht="21" customHeight="1">
+    <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
         <v>38</v>
       </c>
@@ -3434,7 +3436,7 @@
       <c r="K27" s="27"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="18"/>
       <c r="C28" s="22"/>
       <c r="D28" s="26"/>
@@ -3447,7 +3449,7 @@
       <c r="K28" s="27"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
       <c r="C29" s="22"/>
       <c r="D29" s="26"/>
@@ -3460,7 +3462,7 @@
       <c r="K29" s="27"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="18"/>
       <c r="C30" s="22"/>
       <c r="D30" s="26"/>
@@ -3473,7 +3475,7 @@
       <c r="K30" s="27"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="18"/>
       <c r="C31" s="22"/>
       <c r="D31" s="26"/>
@@ -3486,7 +3488,7 @@
       <c r="K31" s="27"/>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="18"/>
       <c r="C32" s="22"/>
       <c r="D32" s="26"/>
@@ -3499,7 +3501,7 @@
       <c r="K32" s="27"/>
       <c r="L32" s="20"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="18"/>
       <c r="C33" s="22"/>
       <c r="D33" s="26"/>
@@ -3512,7 +3514,7 @@
       <c r="K33" s="27"/>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="18"/>
       <c r="C34" s="22"/>
       <c r="D34" s="26"/>
@@ -3525,7 +3527,7 @@
       <c r="K34" s="27"/>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="18"/>
       <c r="C35" s="22"/>
       <c r="D35" s="26"/>
@@ -3538,7 +3540,7 @@
       <c r="K35" s="27"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="18"/>
       <c r="C36" s="22"/>
       <c r="D36" s="26"/>
@@ -3551,7 +3553,7 @@
       <c r="K36" s="27"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="18"/>
       <c r="C37" s="22"/>
       <c r="D37" s="26"/>
@@ -3564,7 +3566,7 @@
       <c r="K37" s="27"/>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="18"/>
       <c r="C38" s="22"/>
       <c r="D38" s="26"/>
@@ -3577,7 +3579,7 @@
       <c r="K38" s="27"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="18"/>
       <c r="C39" s="22"/>
       <c r="D39" s="26"/>
@@ -3590,7 +3592,7 @@
       <c r="K39" s="27"/>
       <c r="L39" s="20"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
       <c r="C40" s="22"/>
       <c r="D40" s="26"/>
@@ -3603,7 +3605,7 @@
       <c r="K40" s="27"/>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="18"/>
       <c r="C41" s="22"/>
       <c r="D41" s="26"/>
@@ -3616,7 +3618,7 @@
       <c r="K41" s="27"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="18"/>
       <c r="C42" s="22"/>
       <c r="D42" s="26"/>
@@ -3629,7 +3631,7 @@
       <c r="K42" s="27"/>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1">
+    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="28"/>
       <c r="C43" s="29"/>
       <c r="D43" s="30"/>
@@ -3642,7 +3644,7 @@
       <c r="K43" s="31"/>
       <c r="L43" s="32"/>
     </row>
-    <row r="44" spans="2:12" ht="15" thickTop="1"/>
+    <row r="44" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
@@ -3660,31 +3662,31 @@
   <dimension ref="B1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="45.95">
+    <row r="1" spans="2:12" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -3703,7 +3705,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="2:12" ht="21">
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3738,259 +3740,259 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="F5" s="5"/>
       <c r="I5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="F6" s="5"/>
       <c r="I6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="F7" s="5"/>
       <c r="I7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="F8" s="5"/>
       <c r="I8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="F9" s="5"/>
       <c r="I9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="F10" s="5"/>
       <c r="I10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="F11" s="5"/>
       <c r="I11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="F12" s="5"/>
       <c r="I12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="F13" s="5"/>
       <c r="I13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="5"/>
       <c r="F14" s="5"/>
       <c r="I14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="F15" s="5"/>
       <c r="I15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="F16" s="5"/>
       <c r="I16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="F17" s="5"/>
       <c r="I17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="F18" s="5"/>
       <c r="I18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="F19" s="5"/>
       <c r="I19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="F20" s="5"/>
       <c r="I20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
       <c r="I21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
       <c r="I22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
       <c r="I23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
       <c r="I24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
       <c r="I25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="F26" s="5"/>
       <c r="I26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="F27" s="5"/>
       <c r="I27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="F28" s="5"/>
       <c r="I28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="F29" s="5"/>
       <c r="I29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="F30" s="5"/>
       <c r="I30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="F31" s="5"/>
       <c r="I31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="F32" s="5"/>
       <c r="I32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="F33" s="5"/>
       <c r="I33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="F34" s="5"/>
       <c r="I34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="F35" s="5"/>
       <c r="I35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="F36" s="5"/>
       <c r="I36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="F37" s="5"/>
       <c r="I37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="F38" s="5"/>
       <c r="I38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="F39" s="5"/>
       <c r="I39" s="5"/>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="F40" s="5"/>
       <c r="I40" s="5"/>
       <c r="L40" s="5"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="F41" s="5"/>
@@ -4011,27 +4013,27 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="45.95">
+    <row r="1" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="21">
+    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -4055,7 +4057,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="2:15" ht="21">
+    <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -4099,7 +4101,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="5"/>
       <c r="F5" s="5"/>
@@ -4107,7 +4109,7 @@
       <c r="L5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="5"/>
       <c r="F6" s="5"/>
@@ -4115,7 +4117,7 @@
       <c r="L6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="5"/>
       <c r="F7" s="5"/>
@@ -4123,7 +4125,7 @@
       <c r="L7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="5"/>
       <c r="F8" s="5"/>
@@ -4131,7 +4133,7 @@
       <c r="L8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="F9" s="5"/>
@@ -4139,7 +4141,7 @@
       <c r="L9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="F10" s="5"/>
@@ -4147,7 +4149,7 @@
       <c r="L10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="5"/>
       <c r="F11" s="5"/>
@@ -4155,7 +4157,7 @@
       <c r="L11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="F12" s="5"/>
@@ -4163,7 +4165,7 @@
       <c r="L12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="5"/>
       <c r="F13" s="5"/>
@@ -4171,7 +4173,7 @@
       <c r="L13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="5"/>
       <c r="F14" s="5"/>
@@ -4179,7 +4181,7 @@
       <c r="L14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
       <c r="F15" s="5"/>
@@ -4187,7 +4189,7 @@
       <c r="L15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
       <c r="F16" s="5"/>
@@ -4195,7 +4197,7 @@
       <c r="L16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="F17" s="5"/>
@@ -4203,7 +4205,7 @@
       <c r="L17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="F18" s="5"/>
@@ -4211,7 +4213,7 @@
       <c r="L18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="F19" s="5"/>
@@ -4219,7 +4221,7 @@
       <c r="L19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="F20" s="5"/>
@@ -4227,7 +4229,7 @@
       <c r="L20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="5"/>
       <c r="F21" s="5"/>
@@ -4235,7 +4237,7 @@
       <c r="L21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="F22" s="5"/>
@@ -4243,7 +4245,7 @@
       <c r="L22" s="5"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="F23" s="5"/>
@@ -4251,7 +4253,7 @@
       <c r="L23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="F24" s="5"/>
@@ -4259,7 +4261,7 @@
       <c r="L24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="F25" s="5"/>
@@ -4267,7 +4269,7 @@
       <c r="L25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="F26" s="5"/>
@@ -4275,7 +4277,7 @@
       <c r="L26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="F27" s="5"/>
@@ -4283,7 +4285,7 @@
       <c r="L27" s="5"/>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="F28" s="5"/>
@@ -4291,7 +4293,7 @@
       <c r="L28" s="5"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="F29" s="5"/>
@@ -4299,7 +4301,7 @@
       <c r="L29" s="5"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="F30" s="5"/>
@@ -4307,7 +4309,7 @@
       <c r="L30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="F31" s="5"/>
@@ -4315,7 +4317,7 @@
       <c r="L31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="F32" s="5"/>
@@ -4323,7 +4325,7 @@
       <c r="L32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="F33" s="5"/>
@@ -4331,7 +4333,7 @@
       <c r="L33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="F34" s="5"/>
@@ -4339,7 +4341,7 @@
       <c r="L34" s="5"/>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="F35" s="5"/>
@@ -4347,7 +4349,7 @@
       <c r="L35" s="5"/>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="F36" s="5"/>
@@ -4355,7 +4357,7 @@
       <c r="L36" s="5"/>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="F37" s="5"/>
@@ -4363,7 +4365,7 @@
       <c r="L37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="F38" s="5"/>
@@ -4371,7 +4373,7 @@
       <c r="L38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="F39" s="5"/>
@@ -4379,7 +4381,7 @@
       <c r="L39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="F40" s="5"/>
@@ -4387,7 +4389,7 @@
       <c r="L40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="F41" s="5"/>
@@ -4401,6 +4403,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100954A8E9E21806B42B0835A6BBE56265C" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e951aec6da6d412d677f346b6262da92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ea1c89d3-622e-48e0-8a99-4ecb42d738bd" xmlns:ns4="31f255c5-42ad-4507-a6fa-e348ffc9e3cf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32634ab51e74a305451f2d3f630e5dd2" ns3:_="" ns4:_="">
     <xsd:import namespace="ea1c89d3-622e-48e0-8a99-4ecb42d738bd"/>
@@ -4589,15 +4600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4607,13 +4609,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479EB5E3-139D-4C84-B0FC-108A3EB9FDB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555B1095-963E-4503-A3CD-06C8C15A47AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555B1095-963E-4503-A3CD-06C8C15A47AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{479EB5E3-139D-4C84-B0FC-108A3EB9FDB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ea1c89d3-622e-48e0-8a99-4ecb42d738bd"/>
+    <ds:schemaRef ds:uri="31f255c5-42ad-4507-a6fa-e348ffc9e3cf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB22DD2-ABAC-4321-B7BE-8ECFD23CBB13}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDB22DD2-ABAC-4321-B7BE-8ECFD23CBB13}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ea1c89d3-622e-48e0-8a99-4ecb42d738bd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
+++ b/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crage\Desktop\C61_SHOGI_RAG\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Ecole\Session_Hiver_2025\C61_SHOGI_RAG\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCF8030-F9ED-48E7-8AED-40087A6A626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536879AC-CDF5-4087-99B5-A5132E93F583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="163">
   <si>
     <t>Planification globale</t>
   </si>
@@ -485,6 +485,39 @@
   </si>
   <si>
     <t>terminer modification de PartieDao et des methode pour incorporer listCoups</t>
+  </si>
+  <si>
+    <t>Tous relier. Même structutures, données différentes. Créer a partir de initPiece</t>
+  </si>
+  <si>
+    <t>Cas d'exception gérer</t>
+  </si>
+  <si>
+    <t>Suivre le développement de la vue pour créer les méthodes appropriées.</t>
+  </si>
+  <si>
+    <t>Méthodes additionnel probable a rajouté plus loin dans le projet …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement </t>
+  </si>
+  <si>
+    <t>Implémentation de Minimax</t>
+  </si>
+  <si>
+    <t>Méthode pour manipuler une instance d'échequier</t>
+  </si>
+  <si>
+    <t>Méthode Undo</t>
+  </si>
+  <si>
+    <t>Méthode Redo</t>
+  </si>
+  <si>
+    <t>Méthode Évaluation Board control</t>
+  </si>
+  <si>
+    <t>..</t>
   </si>
 </sst>
 </file>
@@ -494,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\ %"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +590,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -685,22 +724,13 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,9 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -838,8 +865,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1115,1365 +1170,1365 @@
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="6" customWidth="1"/>
+    <col min="3" max="4" width="20.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>2</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>3</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>4</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>5</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>7</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>8</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>9</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>10</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>11</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>12</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>13</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>14</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>15</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="7">
         <v>16</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>17</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
+      <c r="A37" s="7">
         <v>18</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>19</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
+      <c r="A39" s="7">
         <v>20</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>21</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
+      <c r="A41" s="7">
         <v>22</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="15"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
+      <c r="A42" s="7">
         <v>23</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
+      <c r="A43" s="7">
         <v>24</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
+      <c r="A44" s="7">
         <v>25</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
+      <c r="A45" s="7">
         <v>26</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>27</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
+      <c r="A47" s="7">
         <v>28</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+      <c r="A48" s="7">
         <v>29</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
+      <c r="A49" s="7">
         <v>30</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="7">
         <v>31</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+      <c r="A51" s="7">
         <v>32</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
+      <c r="A52" s="7">
         <v>33</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+      <c r="A53" s="7">
         <v>34</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
+      <c r="A54" s="7">
         <v>35</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+      <c r="A55" s="7">
         <v>36</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
+      <c r="A56" s="7">
         <v>37</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+      <c r="A57" s="7">
         <v>38</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
+      <c r="A58" s="7">
         <v>39</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+      <c r="A59" s="7">
         <v>40</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="7">
         <v>41</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="7">
         <v>42</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="7">
         <v>43</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="7">
         <v>44</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="7">
         <v>45</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="7">
         <v>46</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="7">
         <v>47</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="7">
         <v>48</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>49</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+      <c r="A69" s="7">
         <v>50</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10">
+      <c r="A70" s="7">
         <v>51</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+      <c r="A71" s="7">
         <v>52</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+      <c r="A72" s="7">
         <v>53</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+      <c r="A73" s="7">
         <v>54</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10">
+      <c r="A74" s="7">
         <v>55</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
+      <c r="A75" s="7">
         <v>56</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10">
+      <c r="A76" s="7">
         <v>57</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10">
+      <c r="A77" s="7">
         <v>58</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
+      <c r="A78" s="7">
         <v>59</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
+      <c r="A79" s="7">
         <v>60</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="14"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
     </row>
     <row r="81" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="14"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="14"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="14"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="14"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="14"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="14"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="14"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="14"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="14"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="14"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="14"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="14"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="14"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="14"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="14"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="14"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="14"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="14"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="14"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="14"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="14"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="14"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="14"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="14"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="14"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="14"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="14"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="14"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="14"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="14"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="14"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2510,517 +2565,517 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="20"/>
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="20"/>
       <c r="G11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="22">
-        <v>1</v>
-      </c>
-      <c r="I11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="20"/>
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="20"/>
       <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="22">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="20"/>
       <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="I15" s="20"/>
       <c r="J15" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="22">
-        <v>1</v>
-      </c>
-      <c r="L15" s="23"/>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
       <c r="J16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="22">
-        <v>1</v>
-      </c>
-      <c r="L16" s="23"/>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="I17" s="20"/>
       <c r="J17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="22">
-        <v>1</v>
-      </c>
-      <c r="L17" s="23"/>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="F18" s="20"/>
+      <c r="I18" s="20"/>
       <c r="J18" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="22">
-        <v>1</v>
-      </c>
-      <c r="L18" s="23"/>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
       <c r="J19" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="22">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23"/>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="F20" s="20"/>
+      <c r="I20" s="20"/>
       <c r="J20" t="s">
         <v>19</v>
       </c>
-      <c r="K20" s="22">
-        <v>1</v>
-      </c>
-      <c r="L20" s="23"/>
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20"/>
     </row>
     <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="L24" s="23"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="L25" s="23"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="L26" s="23"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="L27" s="20"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="L28" s="23"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="L29" s="23"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="L29" s="20"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="L30" s="23"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="L31" s="23"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="L34" s="23"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="L35" s="23"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="L36" s="20"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="L38" s="20"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="L42" s="23"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="L43" s="23"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="L44" s="23"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="L45" s="23"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="L45" s="20"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="L46" s="23"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="L46" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3032,1579 +3087,1655 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="24" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" style="21" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="22" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="22" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="23"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="27" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="32">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="32">
-        <v>1</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="32">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="E7" s="28">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="31" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="32">
-        <v>1</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="31" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="32">
-        <v>1</v>
-      </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="H10" s="28">
+        <v>1</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="31" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="32">
-        <v>1</v>
-      </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="32">
-        <v>1</v>
-      </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="32">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="E16" s="28">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="28">
         <v>0</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="E19" s="28">
+        <v>1</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
     </row>
     <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="32">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="32">
-        <v>1</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="E21" s="28">
+        <v>1</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="32">
-        <v>1</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="32">
-        <v>1</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="E23" s="28">
+        <v>1</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="32">
-        <v>1</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
+      <c r="E24" s="28">
+        <v>1</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="32">
-        <v>1</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="E25" s="28">
+        <v>1</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="48">
-        <v>1</v>
-      </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="49"/>
+      <c r="E27" s="44">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
     </row>
     <row r="28" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="48">
-        <v>1</v>
-      </c>
-      <c r="F28" s="49"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="49"/>
+      <c r="E28" s="44">
+        <v>1</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
     </row>
     <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="48">
-        <v>1</v>
-      </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
+      <c r="E29" s="44">
+        <v>1</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
     </row>
     <row r="30" spans="2:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="38">
-        <v>1</v>
-      </c>
-      <c r="F30" s="59" t="s">
+      <c r="E30" s="34">
+        <v>1</v>
+      </c>
+      <c r="F30" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="48">
-        <v>1</v>
-      </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="49"/>
+      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
     <row r="32" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="E32" s="48">
-        <v>1</v>
-      </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="49"/>
+      <c r="E32" s="44">
+        <v>1</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="45"/>
     </row>
     <row r="33" spans="2:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="38">
-        <v>1</v>
-      </c>
-      <c r="F33" s="59" t="s">
+      <c r="E33" s="34">
+        <v>1</v>
+      </c>
+      <c r="F33" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
     </row>
     <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
-    </row>
-    <row r="35" spans="2:12" s="56" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="45" t="s">
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+    </row>
+    <row r="35" spans="2:12" s="52" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="54">
-        <v>1</v>
-      </c>
-      <c r="I35" s="55" t="s">
+      <c r="H35" s="50">
+        <v>1</v>
+      </c>
+      <c r="I35" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="53" t="s">
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="54">
-        <v>1</v>
-      </c>
-      <c r="I36" s="49"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="49"/>
+      <c r="H36" s="50">
+        <v>1</v>
+      </c>
+      <c r="I36" s="45"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="45"/>
     </row>
     <row r="37" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="49"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
     </row>
     <row r="38" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="47" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="48">
-        <v>1</v>
-      </c>
-      <c r="L38" s="49"/>
+      <c r="K38" s="44">
+        <v>1</v>
+      </c>
+      <c r="L38" s="45"/>
     </row>
     <row r="39" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="47" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K39" s="48">
-        <v>1</v>
-      </c>
-      <c r="L39" s="49"/>
+      <c r="K39" s="44">
+        <v>1</v>
+      </c>
+      <c r="L39" s="45"/>
     </row>
     <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="47" t="s">
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="K40" s="48">
-        <v>1</v>
-      </c>
-      <c r="L40" s="49"/>
+      <c r="K40" s="44">
+        <v>1</v>
+      </c>
+      <c r="L40" s="45"/>
     </row>
     <row r="41" spans="2:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="53" t="s">
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="54">
+      <c r="K41" s="50">
         <v>0.66</v>
       </c>
-      <c r="L41" s="57" t="s">
+      <c r="L41" s="53" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="42" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="32">
-        <v>1</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
+      <c r="D42" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="28">
+        <v>1</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="2:12" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="31" t="s">
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="28">
         <v>0</v>
       </c>
-      <c r="L43" s="36" t="s">
+      <c r="L43" s="32" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="31" t="s">
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="38">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1" t="s">
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+      <c r="L44" s="56" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="31" t="s">
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K45" s="32">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1"/>
+      <c r="K45" s="28">
+        <v>1</v>
+      </c>
+      <c r="L45" s="56"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="31" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="28">
         <v>0.3</v>
       </c>
-      <c r="L46" s="1"/>
+      <c r="L46" s="56"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="31" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K47" s="32">
-        <v>1</v>
-      </c>
-      <c r="L47" s="33"/>
+      <c r="K47" s="28">
+        <v>1</v>
+      </c>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="31" t="s">
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="32">
-        <v>1</v>
-      </c>
-      <c r="L48" s="33"/>
+      <c r="K48" s="28">
+        <v>1</v>
+      </c>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="31" t="s">
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K49" s="32">
-        <v>1</v>
-      </c>
-      <c r="L49" s="33"/>
+      <c r="K49" s="28">
+        <v>1</v>
+      </c>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="31" t="s">
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="32">
-        <v>1</v>
-      </c>
-      <c r="L50" s="33"/>
+      <c r="K50" s="28">
+        <v>1</v>
+      </c>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="31" t="s">
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K51" s="32">
-        <v>1</v>
-      </c>
-      <c r="L51" s="33"/>
+      <c r="K51" s="28">
+        <v>1</v>
+      </c>
+      <c r="L51" s="29"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="31" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="32">
-        <v>1</v>
-      </c>
-      <c r="L52" s="33"/>
+      <c r="K52" s="28">
+        <v>1</v>
+      </c>
+      <c r="L52" s="29"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="31" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K53" s="32">
-        <v>1</v>
-      </c>
-      <c r="L53" s="33"/>
+      <c r="K53" s="28">
+        <v>1</v>
+      </c>
+      <c r="L53" s="29"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="31" t="s">
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K54" s="32">
-        <v>1</v>
-      </c>
-      <c r="L54" s="33"/>
+      <c r="K54" s="28">
+        <v>1</v>
+      </c>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="31" t="s">
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="32">
-        <v>1</v>
-      </c>
-      <c r="L55" s="33"/>
+      <c r="K55" s="28">
+        <v>1</v>
+      </c>
+      <c r="L55" s="29"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="33"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="29"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="29"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="33"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="33"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="33"/>
+      <c r="D62" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K62" s="28">
+        <v>1</v>
+      </c>
+      <c r="L62" s="61" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="61"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="33"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="61"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="33"/>
+      <c r="D65" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="61"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="31"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="33"/>
+      <c r="D66" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F66" s="56"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
+      <c r="D67" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F67" s="56"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="32"/>
-      <c r="I68" s="33"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="33"/>
+      <c r="D68" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F68" s="56"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="33"/>
+      <c r="D69" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F69" s="56"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="33"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="33"/>
+      <c r="D70" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F70" s="56"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="32"/>
-      <c r="L71" s="33"/>
+      <c r="D71" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F71" s="56"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
+      <c r="D72" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E72" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F72" s="56"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="33"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="33"/>
+      <c r="D73" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F73" s="56"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="33"/>
+      <c r="D74" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F74" s="56"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="33"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="33"/>
+      <c r="D75" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F75" s="29"/>
+      <c r="G75" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="28">
+        <v>1</v>
+      </c>
+      <c r="I75" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="J75" s="27"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="29"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="31"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="33"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="29"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="33"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="29"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="33"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="29"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="33"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="29"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="33"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="29"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="33"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="33"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="29"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="33"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="33"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="29"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="32"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="32"/>
-      <c r="L83" s="33"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="40"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="44"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="40"/>
     </row>
     <row r="85" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="F65:F74"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="I75:I76"/>
+    <mergeCell ref="L62:L65"/>
     <mergeCell ref="L44:L46"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4612,6 +4743,7 @@
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4619,413 +4751,793 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:L41"/>
+  <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="4" max="12" width="18.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="19" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="66"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="65" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="L15" s="23"/>
+      <c r="C15" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="C16" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="L17" s="23"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="L19" s="23"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="L20" s="23"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="L21" s="23"/>
+      <c r="B21" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="L22" s="23"/>
+      <c r="B22" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="66"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="66"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="66"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="66"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="66"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="66"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="66"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="66"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="L24" s="23"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="66"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="L25" s="23"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="L26" s="23"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="L27" s="23"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="L29" s="23"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="L30" s="23"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="L31" s="23"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="L33" s="23"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="L34" s="23"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="L35" s="23"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="L36" s="23"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="L37" s="23"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="L38" s="23"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="L39" s="23"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="L40" s="23"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="L41" s="23"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="66"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="66"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="66"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="66"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="66"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="66"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="66"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="66"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5053,373 +5565,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="19" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
-      <c r="C7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="O10" s="23"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="O11" s="20"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="O15" s="20"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="O23" s="23"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
-      <c r="C27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
-      <c r="C29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
-      <c r="C31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="O32" s="20"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
-      <c r="C33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="O36" s="23"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="O38" s="20"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="O39" s="23"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="O39" s="20"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="O40" s="23"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-      <c r="C41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="O41" s="23"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="O41" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
+++ b/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Ecole\Session_Hiver_2025\C61_SHOGI_RAG\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2225897\Desktop\C61_SHOGI_RAG\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536879AC-CDF5-4087-99B5-A5132E93F583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50363DF4-7F82-43E9-A533-98703EC7FA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="159">
   <si>
     <t>Planification globale</t>
   </si>
@@ -341,18 +341,6 @@
   </si>
   <si>
     <t>creation de la classe HistoriqueDeCoups</t>
-  </si>
-  <si>
-    <t>creations de la classe d'acces a la base de donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creation de la classe DAO </t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>creation des méthode d'acces a la base de donnees</t>
   </si>
   <si>
     <t>1h30</t>
@@ -865,8 +853,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,21 +881,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1166,20 +1154,20 @@
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
+    <col min="3" max="4" width="20.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="1">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
@@ -1208,7 +1196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>9</v>
@@ -1223,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -1238,7 +1226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -1253,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
         <v>14</v>
@@ -1268,7 +1256,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1283,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1298,7 +1286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1313,7 +1301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>21</v>
@@ -1328,7 +1316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="8" t="s">
         <v>22</v>
@@ -1343,7 +1331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
@@ -1358,7 +1346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="8" t="s">
         <v>24</v>
@@ -1373,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>26</v>
@@ -1388,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
@@ -1403,7 +1391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>28</v>
@@ -1418,7 +1406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>29</v>
@@ -1433,7 +1421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>30</v>
@@ -1448,7 +1436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>2</v>
       </c>
@@ -1465,7 +1453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>3</v>
       </c>
@@ -1482,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>4</v>
       </c>
@@ -1499,7 +1487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>5</v>
       </c>
@@ -1516,7 +1504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>6</v>
       </c>
@@ -1533,7 +1521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>7</v>
       </c>
@@ -1550,7 +1538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>8</v>
       </c>
@@ -1567,7 +1555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>9</v>
       </c>
@@ -1584,7 +1572,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>10</v>
       </c>
@@ -1601,7 +1589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>11</v>
       </c>
@@ -1618,7 +1606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>12</v>
       </c>
@@ -1635,7 +1623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>13</v>
       </c>
@@ -1652,7 +1640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>14</v>
       </c>
@@ -1669,7 +1657,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>15</v>
       </c>
@@ -1686,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>16</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
         <v>17</v>
       </c>
@@ -1720,7 +1708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
         <v>18</v>
       </c>
@@ -1737,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
         <v>19</v>
       </c>
@@ -1754,7 +1742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
         <v>20</v>
       </c>
@@ -1771,7 +1759,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
         <v>21</v>
       </c>
@@ -1788,7 +1776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
         <v>22</v>
       </c>
@@ -1806,7 +1794,7 @@
       </c>
       <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
         <v>23</v>
       </c>
@@ -1823,7 +1811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
         <v>24</v>
       </c>
@@ -1840,7 +1828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
         <v>25</v>
       </c>
@@ -1857,7 +1845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
         <v>26</v>
       </c>
@@ -1874,7 +1862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
         <v>27</v>
       </c>
@@ -1891,7 +1879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
         <v>28</v>
       </c>
@@ -1908,7 +1896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
         <v>29</v>
       </c>
@@ -1925,7 +1913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
         <v>30</v>
       </c>
@@ -1942,7 +1930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
         <v>31</v>
       </c>
@@ -1959,7 +1947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
         <v>32</v>
       </c>
@@ -1976,7 +1964,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
         <v>33</v>
       </c>
@@ -1993,7 +1981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
         <v>34</v>
       </c>
@@ -2010,7 +1998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
         <v>35</v>
       </c>
@@ -2027,7 +2015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
         <v>36</v>
       </c>
@@ -2044,7 +2032,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
         <v>37</v>
       </c>
@@ -2061,7 +2049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
         <v>38</v>
       </c>
@@ -2078,7 +2066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
         <v>39</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
         <v>40</v>
       </c>
@@ -2112,7 +2100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
         <v>41</v>
       </c>
@@ -2129,7 +2117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
         <v>42</v>
       </c>
@@ -2146,7 +2134,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
         <v>43</v>
       </c>
@@ -2155,7 +2143,7 @@
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
     </row>
-    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>44</v>
       </c>
@@ -2164,7 +2152,7 @@
       <c r="D63" s="13"/>
       <c r="E63" s="13"/>
     </row>
-    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>45</v>
       </c>
@@ -2173,7 +2161,7 @@
       <c r="D64" s="13"/>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>46</v>
       </c>
@@ -2182,7 +2170,7 @@
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>47</v>
       </c>
@@ -2191,7 +2179,7 @@
       <c r="D66" s="13"/>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
         <v>48</v>
       </c>
@@ -2200,7 +2188,7 @@
       <c r="D67" s="13"/>
       <c r="E67" s="13"/>
     </row>
-    <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>49</v>
       </c>
@@ -2209,7 +2197,7 @@
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
     </row>
-    <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>50</v>
       </c>
@@ -2218,7 +2206,7 @@
       <c r="D69" s="13"/>
       <c r="E69" s="13"/>
     </row>
-    <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>51</v>
       </c>
@@ -2227,7 +2215,7 @@
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
     </row>
-    <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>52</v>
       </c>
@@ -2236,7 +2224,7 @@
       <c r="D71" s="13"/>
       <c r="E71" s="13"/>
     </row>
-    <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>53</v>
       </c>
@@ -2245,7 +2233,7 @@
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
     </row>
-    <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7">
         <v>54</v>
       </c>
@@ -2254,7 +2242,7 @@
       <c r="D73" s="13"/>
       <c r="E73" s="13"/>
     </row>
-    <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
         <v>55</v>
       </c>
@@ -2263,7 +2251,7 @@
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
     </row>
-    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
         <v>56</v>
       </c>
@@ -2272,7 +2260,7 @@
       <c r="D75" s="13"/>
       <c r="E75" s="13"/>
     </row>
-    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
         <v>57</v>
       </c>
@@ -2281,7 +2269,7 @@
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
     </row>
-    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
         <v>58</v>
       </c>
@@ -2290,7 +2278,7 @@
       <c r="D77" s="13"/>
       <c r="E77" s="13"/>
     </row>
-    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
         <v>59</v>
       </c>
@@ -2299,7 +2287,7 @@
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
     </row>
-    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
         <v>60</v>
       </c>
@@ -2308,223 +2296,223 @@
       <c r="D79" s="13"/>
       <c r="E79" s="13"/>
     </row>
-    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
     </row>
-    <row r="81" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="11"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B83" s="11"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="11"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B87" s="11"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B88" s="11"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B89" s="11"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B90" s="11"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13"/>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B91" s="11"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B92" s="11"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
       <c r="E92" s="13"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="11"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
       <c r="E93" s="13"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="11"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
       <c r="E94" s="13"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B95" s="11"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B96" s="11"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B97" s="11"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B98" s="11"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B99" s="11"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B100" s="11"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="11"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" s="11"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
       <c r="E102" s="13"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B103" s="11"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="11"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="11"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B106" s="11"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B107" s="11"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="11"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B109" s="11"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B110" s="11"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="11"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="11"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="11"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="11"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="11"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="11"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -2550,26 +2538,26 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="12" max="12" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:12" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
@@ -2588,7 +2576,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
     </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -2623,7 +2611,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2628,7 @@
       <c r="I5" s="20"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2657,7 +2645,7 @@
       <c r="I6" s="20"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2674,7 +2662,7 @@
       <c r="I7" s="20"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -2691,7 +2679,7 @@
       <c r="I8" s="20"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2708,7 +2696,7 @@
       <c r="I9" s="20"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2713,7 @@
       <c r="I10" s="20"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
@@ -2742,7 +2730,7 @@
       <c r="I11" s="20"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2759,7 +2747,7 @@
       <c r="I12" s="20"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
@@ -2776,7 +2764,7 @@
       <c r="I13" s="20"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
@@ -2793,7 +2781,7 @@
       <c r="I14" s="20"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
@@ -2810,7 +2798,7 @@
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
@@ -2827,7 +2815,7 @@
       </c>
       <c r="L16" s="20"/>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
         <v>26</v>
       </c>
@@ -2844,7 +2832,7 @@
       </c>
       <c r="L17" s="20"/>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
@@ -2861,7 +2849,7 @@
       </c>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2878,7 +2866,7 @@
       </c>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
@@ -2895,182 +2883,182 @@
       </c>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="20"/>
       <c r="F21" s="20"/>
       <c r="I21" s="20"/>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="20"/>
       <c r="F22" s="20"/>
       <c r="I22" s="20"/>
       <c r="L22" s="20"/>
     </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="20"/>
       <c r="F23" s="20"/>
       <c r="I23" s="20"/>
       <c r="L23" s="20"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="20"/>
       <c r="F24" s="20"/>
       <c r="I24" s="20"/>
       <c r="L24" s="20"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="20"/>
       <c r="F25" s="20"/>
       <c r="I25" s="20"/>
       <c r="L25" s="20"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="20"/>
       <c r="F26" s="20"/>
       <c r="I26" s="20"/>
       <c r="L26" s="20"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="20"/>
       <c r="F27" s="20"/>
       <c r="I27" s="20"/>
       <c r="L27" s="20"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="20"/>
       <c r="F28" s="20"/>
       <c r="I28" s="20"/>
       <c r="L28" s="20"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="20"/>
       <c r="F29" s="20"/>
       <c r="I29" s="20"/>
       <c r="L29" s="20"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="20"/>
       <c r="F30" s="20"/>
       <c r="I30" s="20"/>
       <c r="L30" s="20"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="20"/>
       <c r="F31" s="20"/>
       <c r="I31" s="20"/>
       <c r="L31" s="20"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="20"/>
       <c r="F32" s="20"/>
       <c r="I32" s="20"/>
       <c r="L32" s="20"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="20"/>
       <c r="F33" s="20"/>
       <c r="I33" s="20"/>
       <c r="L33" s="20"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="20"/>
       <c r="F34" s="20"/>
       <c r="I34" s="20"/>
       <c r="L34" s="20"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="20"/>
       <c r="F35" s="20"/>
       <c r="I35" s="20"/>
       <c r="L35" s="20"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="20"/>
       <c r="F36" s="20"/>
       <c r="I36" s="20"/>
       <c r="L36" s="20"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="20"/>
       <c r="F37" s="20"/>
       <c r="I37" s="20"/>
       <c r="L37" s="20"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="20"/>
       <c r="F38" s="20"/>
       <c r="I38" s="20"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="20"/>
       <c r="F39" s="20"/>
       <c r="I39" s="20"/>
       <c r="L39" s="20"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="20"/>
       <c r="F40" s="20"/>
       <c r="I40" s="20"/>
       <c r="L40" s="20"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="20"/>
       <c r="F41" s="20"/>
       <c r="I41" s="20"/>
       <c r="L41" s="20"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="8"/>
       <c r="C42" s="20"/>
       <c r="F42" s="20"/>
       <c r="I42" s="20"/>
       <c r="L42" s="20"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="C43" s="20"/>
       <c r="F43" s="20"/>
       <c r="I43" s="20"/>
       <c r="L43" s="20"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="8"/>
       <c r="C44" s="20"/>
       <c r="F44" s="20"/>
       <c r="I44" s="20"/>
       <c r="L44" s="20"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="20"/>
       <c r="F45" s="20"/>
       <c r="I45" s="20"/>
       <c r="L45" s="20"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B46" s="8"/>
       <c r="C46" s="20"/>
       <c r="F46" s="20"/>
@@ -3085,60 +3073,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="21" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="22" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="21" customWidth="1"/>
+    <col min="3" max="4" width="17.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="18.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" style="22" customWidth="1"/>
+    <col min="12" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="46" x14ac:dyDescent="0.35">
       <c r="B1" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="20"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-    </row>
-    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="20"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>98</v>
       </c>
@@ -3167,15 +3155,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>95</v>
+    <row r="5" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E5" s="28">
         <v>1</v>
@@ -3188,15 +3176,15 @@
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>95</v>
+    <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="28">
         <v>1</v>
@@ -3209,15 +3197,15 @@
       <c r="K6" s="28"/>
       <c r="L6" s="29"/>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>95</v>
+    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="28">
         <v>1</v>
@@ -3230,15 +3218,15 @@
       <c r="K7" s="28"/>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>95</v>
+    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" s="28">
         <v>1</v>
@@ -3251,75 +3239,79 @@
       <c r="K8" s="28"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="28">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:12" ht="95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="29"/>
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>95</v>
-      </c>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="27"/>
       <c r="E10" s="28"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="28">
-        <v>1</v>
-      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="29"/>
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="28">
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="28">
         <v>1</v>
       </c>
+      <c r="F11" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="29"/>
       <c r="J11" s="27"/>
       <c r="K11" s="28"/>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="60"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
@@ -3327,12 +3319,12 @@
       <c r="K12" s="28"/>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>40</v>
+    <row r="13" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>19</v>
@@ -3340,7 +3332,7 @@
       <c r="E13" s="28">
         <v>1</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
@@ -3348,20 +3340,20 @@
       <c r="K13" s="28"/>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>41</v>
+    <row r="14" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E14" s="28">
         <v>1</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
       <c r="I14" s="29"/>
@@ -3369,12 +3361,12 @@
       <c r="K14" s="28"/>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="30" t="s">
-        <v>109</v>
+    <row r="15" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>19</v>
@@ -3382,7 +3374,7 @@
       <c r="E15" s="28">
         <v>1</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
@@ -3390,20 +3382,20 @@
       <c r="K15" s="28"/>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
-        <v>110</v>
+    <row r="16" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
@@ -3411,22 +3403,20 @@
       <c r="K16" s="28"/>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30" t="s">
-        <v>111</v>
+    <row r="17" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E17" s="28">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>112</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F17" s="60"/>
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
       <c r="I17" s="29"/>
@@ -3434,8 +3424,8 @@
       <c r="K17" s="28"/>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
+    <row r="18" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="33"/>
       <c r="C18" s="31"/>
       <c r="D18" s="27"/>
       <c r="E18" s="28"/>
@@ -3447,85 +3437,85 @@
       <c r="K18" s="28"/>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="28">
+    <row r="19" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="44">
         <v>1</v>
       </c>
-      <c r="F19" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="28">
+      <c r="F19" s="45"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+    </row>
+    <row r="20" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="44">
         <v>1</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-    </row>
-    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="28">
+      <c r="F20" s="45"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+    </row>
+    <row r="21" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="44">
         <v>1</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="28">
+      <c r="F21" s="45"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+    </row>
+    <row r="22" spans="2:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="34">
         <v>1</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
@@ -3533,62 +3523,64 @@
       <c r="K22" s="28"/>
       <c r="L22" s="29"/>
     </row>
-    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="28">
+    <row r="23" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="44">
         <v>1</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="28">
+      <c r="F23" s="45"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+    </row>
+    <row r="24" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="44">
         <v>1</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="28">
+      <c r="F24" s="45"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="2:12" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="34">
         <v>1</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
@@ -3596,357 +3588,373 @@
       <c r="K25" s="28"/>
       <c r="L25" s="29"/>
     </row>
-    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="2:12" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="41" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="44">
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" s="50">
         <v>1</v>
       </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="2:12" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="41" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="44">
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="50">
         <v>1</v>
       </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
       <c r="I28" s="45"/>
       <c r="J28" s="43"/>
       <c r="K28" s="44"/>
       <c r="L28" s="45"/>
     </row>
-    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="41" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="44">
-        <v>1</v>
-      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="45"/>
       <c r="G29" s="43"/>
       <c r="H29" s="44"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="44"/>
+      <c r="J29" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="44">
+        <v>1</v>
+      </c>
       <c r="L29" s="45"/>
     </row>
-    <row r="30" spans="2:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="26" t="s">
+    <row r="30" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="34">
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="44">
         <v>1</v>
       </c>
-      <c r="F30" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-    </row>
-    <row r="31" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="2:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="44">
-        <v>1</v>
-      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="45"/>
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
       <c r="I31" s="45"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="J31" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="44">
+        <v>1</v>
+      </c>
       <c r="L31" s="45"/>
     </row>
-    <row r="32" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="206" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="44">
-        <v>1</v>
-      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="45"/>
       <c r="G32" s="43"/>
       <c r="H32" s="44"/>
       <c r="I32" s="45"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="45"/>
-    </row>
-    <row r="33" spans="2:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="34">
+      <c r="J32" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="50">
+        <v>0.66</v>
+      </c>
+      <c r="L32" s="53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="52" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="28">
         <v>1</v>
       </c>
-      <c r="F33" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
       <c r="I33" s="29"/>
       <c r="J33" s="27"/>
       <c r="K33" s="28"/>
       <c r="L33" s="29"/>
     </row>
-    <row r="34" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="45"/>
-    </row>
-    <row r="35" spans="2:12" s="52" customFormat="1" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35" s="50">
+    <row r="34" spans="2:12" ht="166" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="28">
+        <v>0</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="166" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="34">
         <v>1</v>
       </c>
-      <c r="I35" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="J35" s="46"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="48"/>
-    </row>
-    <row r="36" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="50">
+      <c r="L35" s="60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="166" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="28">
         <v>1</v>
       </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="45"/>
-    </row>
-    <row r="37" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="45"/>
-    </row>
-    <row r="38" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="44">
+      <c r="L36" s="60"/>
+    </row>
+    <row r="37" spans="2:12" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="2:12" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="28">
         <v>1</v>
       </c>
-      <c r="L38" s="45"/>
-    </row>
-    <row r="39" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="44">
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="2:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="28">
         <v>1</v>
       </c>
-      <c r="L39" s="45"/>
-    </row>
-    <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" s="44">
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="28">
         <v>1</v>
       </c>
-      <c r="L40" s="45"/>
-    </row>
-    <row r="41" spans="2:12" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="K41" s="50">
-        <v>0.66</v>
-      </c>
-      <c r="L41" s="53" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="33" t="s">
-        <v>37</v>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="2:12" ht="44.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41" s="28">
+        <v>1</v>
+      </c>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="2:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="25" t="s">
+        <v>117</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="28">
-        <v>0.6</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
       <c r="F42" s="29"/>
-      <c r="G42" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="28">
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="28">
         <v>1</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="28"/>
       <c r="L42" s="29"/>
     </row>
-    <row r="43" spans="2:12" ht="44.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
-        <v>38</v>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="28"/>
@@ -3955,20 +3963,18 @@
       <c r="H43" s="28"/>
       <c r="I43" s="29"/>
       <c r="J43" s="27" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K43" s="28">
-        <v>0</v>
-      </c>
-      <c r="L43" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="31" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="27"/>
@@ -3980,16 +3986,14 @@
       <c r="J44" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="28">
         <v>1</v>
       </c>
-      <c r="L44" s="56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B45" s="25" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>97</v>
@@ -4001,16 +4005,16 @@
       <c r="H45" s="28"/>
       <c r="I45" s="29"/>
       <c r="J45" s="27" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K45" s="28">
         <v>1</v>
       </c>
-      <c r="L45" s="56"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="2:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="25" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C46" s="31" t="s">
         <v>97</v>
@@ -4022,82 +4026,58 @@
       <c r="H46" s="28"/>
       <c r="I46" s="29"/>
       <c r="J46" s="27" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K46" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="L46" s="56"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>97</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L46" s="29"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="25"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="27"/>
       <c r="E47" s="28"/>
       <c r="F47" s="29"/>
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
       <c r="I47" s="29"/>
-      <c r="J47" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K47" s="28">
-        <v>1</v>
-      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
       <c r="L47" s="29"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>97</v>
-      </c>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="25"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="27"/>
       <c r="E48" s="28"/>
       <c r="F48" s="29"/>
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="28">
-        <v>1</v>
-      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>97</v>
-      </c>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="25"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="27"/>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="28">
-        <v>1</v>
-      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
       <c r="L49" s="29"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B50" s="25" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="28"/>
@@ -4105,20 +4085,16 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="28">
-        <v>1</v>
-      </c>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
       <c r="L50" s="29"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B51" s="25" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="28"/>
@@ -4126,20 +4102,16 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K51" s="28">
-        <v>1</v>
-      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
       <c r="L51" s="29"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B52" s="25" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="27"/>
       <c r="E52" s="28"/>
@@ -4147,41 +4119,47 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="27" t="s">
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="28">
-        <v>1</v>
-      </c>
-      <c r="L52" s="29"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
+      <c r="E53" s="28">
+        <v>0.3</v>
+      </c>
       <c r="F53" s="29"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
+      <c r="G53" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="28">
+        <v>0.8</v>
+      </c>
       <c r="I53" s="29"/>
       <c r="J53" s="27" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K53" s="28">
         <v>1</v>
       </c>
-      <c r="L53" s="29"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B54" s="25" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -4189,20 +4167,16 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K54" s="28">
-        <v>1</v>
-      </c>
-      <c r="L54" s="29"/>
-    </row>
-    <row r="55" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="J54" s="27"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="61"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B55" s="25" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="28"/>
@@ -4210,33 +4184,47 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" s="28">
-        <v>1</v>
-      </c>
-      <c r="L55" s="29"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="29"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="61"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B56" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F56" s="60" t="s">
+        <v>148</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
       <c r="I56" s="29"/>
       <c r="J56" s="27"/>
       <c r="K56" s="28"/>
-      <c r="L56" s="29"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
+      <c r="L56" s="61"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B57" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F57" s="60"/>
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
       <c r="I57" s="29"/>
@@ -4244,12 +4232,20 @@
       <c r="K57" s="28"/>
       <c r="L57" s="29"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B58" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F58" s="60"/>
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
       <c r="I58" s="29"/>
@@ -4257,16 +4253,20 @@
       <c r="K58" s="28"/>
       <c r="L58" s="29"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B59" s="25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F59" s="60"/>
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
       <c r="I59" s="29"/>
@@ -4274,16 +4274,20 @@
       <c r="K59" s="28"/>
       <c r="L59" s="29"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B60" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F60" s="60"/>
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
       <c r="I60" s="29"/>
@@ -4291,16 +4295,20 @@
       <c r="K60" s="28"/>
       <c r="L60" s="29"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B61" s="25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F61" s="60"/>
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
       <c r="I61" s="29"/>
@@ -4308,150 +4316,136 @@
       <c r="K61" s="28"/>
       <c r="L61" s="29"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B62" s="25" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E62" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" s="28">
-        <v>0.8</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="28"/>
       <c r="I62" s="29"/>
-      <c r="J62" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" s="28">
-        <v>1</v>
-      </c>
-      <c r="L62" s="61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B63" s="25" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C63" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
+      <c r="D63" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F63" s="60"/>
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
       <c r="I63" s="29"/>
       <c r="J63" s="27"/>
       <c r="K63" s="28"/>
-      <c r="L63" s="61"/>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="29"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B64" s="25" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
+      <c r="D64" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="F64" s="60"/>
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
       <c r="I64" s="29"/>
       <c r="J64" s="27"/>
       <c r="K64" s="28"/>
-      <c r="L64" s="61"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="29"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E65" s="28">
         <v>0.9</v>
       </c>
-      <c r="F65" s="56" t="s">
-        <v>152</v>
-      </c>
+      <c r="F65" s="60"/>
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
       <c r="I65" s="29"/>
       <c r="J65" s="27"/>
       <c r="K65" s="28"/>
-      <c r="L65" s="61"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L65" s="29"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C66" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="E66" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F66" s="56"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="F66" s="29"/>
+      <c r="G66" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" s="28">
+        <v>1</v>
+      </c>
+      <c r="I66" s="61" t="s">
+        <v>149</v>
+      </c>
       <c r="J66" s="27"/>
       <c r="K66" s="28"/>
       <c r="L66" s="29"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E67" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F67" s="56"/>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B67" s="25"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
-      <c r="I67" s="29"/>
+      <c r="I67" s="61"/>
       <c r="J67" s="27"/>
       <c r="K67" s="28"/>
       <c r="L67" s="29"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D68" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F68" s="56"/>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B68" s="25"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="29"/>
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
       <c r="I68" s="29"/>
@@ -4459,20 +4453,12 @@
       <c r="K68" s="28"/>
       <c r="L68" s="29"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F69" s="56"/>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B69" s="25"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="29"/>
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
       <c r="I69" s="29"/>
@@ -4480,20 +4466,12 @@
       <c r="K69" s="28"/>
       <c r="L69" s="29"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F70" s="56"/>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B70" s="25"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
       <c r="I70" s="29"/>
@@ -4501,20 +4479,12 @@
       <c r="K70" s="28"/>
       <c r="L70" s="29"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D71" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E71" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F71" s="56"/>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B71" s="25"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="29"/>
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
       <c r="I71" s="29"/>
@@ -4522,20 +4492,12 @@
       <c r="K71" s="28"/>
       <c r="L71" s="29"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E72" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F72" s="56"/>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B72" s="25"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="29"/>
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
       <c r="I72" s="29"/>
@@ -4543,20 +4505,12 @@
       <c r="K72" s="28"/>
       <c r="L72" s="29"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E73" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F73" s="56"/>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B73" s="25"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="29"/>
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
       <c r="I73" s="29"/>
@@ -4564,20 +4518,12 @@
       <c r="K73" s="28"/>
       <c r="L73" s="29"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="28">
-        <v>0.9</v>
-      </c>
-      <c r="F74" s="56"/>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="25"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
       <c r="I74" s="29"/>
@@ -4585,163 +4531,32 @@
       <c r="K74" s="28"/>
       <c r="L74" s="29"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D75" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E75" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="F75" s="29"/>
-      <c r="G75" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H75" s="28">
-        <v>1</v>
-      </c>
-      <c r="I75" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="J75" s="27"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="29"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="25"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="29"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="25"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="29"/>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="25"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="29"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="29"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="25"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="29"/>
-    </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="25"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="29"/>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="25"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="29"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="29"/>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="25"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="29"/>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="25"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="36"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="40"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="40"/>
+    </row>
+    <row r="76" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F65:F74"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="I75:I76"/>
-    <mergeCell ref="L62:L65"/>
-    <mergeCell ref="L44:L46"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F56:F65"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="L35:L37"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4753,54 +4568,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
-    <col min="4" max="12" width="18.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.81640625" customWidth="1"/>
+    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" style="3" customWidth="1"/>
+    <col min="4" max="12" width="18.7265625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:12" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+    <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59" t="s">
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-    </row>
-    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="62"/>
-      <c r="C4" s="58"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="65"/>
+    </row>
+    <row r="4" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="66"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>90</v>
@@ -4824,709 +4639,709 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="66"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="C8" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="C9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="K9" s="58"/>
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
-    </row>
-    <row r="11" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="64" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+    </row>
+    <row r="11" spans="2:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="63" t="s">
+      <c r="D11" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="63" t="s">
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="59"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="63" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="59"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="63" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="63" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="63" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="66"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="63" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="66"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="63" t="s">
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="59"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="59"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="59"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="63" t="s">
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="66"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="63" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="59"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="59"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="59"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="59"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="66"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="63" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B36" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="66"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="66"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="66"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="66"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="65"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="65"/>
-      <c r="K43" s="65"/>
-      <c r="L43" s="66"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="65"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="66"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="66"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="66"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="66"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="66"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="66"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="63"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="66"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="59"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="59"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B39" s="56"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="59"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" s="56"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="59"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="59"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="59"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="59"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="59"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B49" s="56"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="59"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B50" s="56"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="59"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5549,27 +5364,27 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:15" ht="46" x14ac:dyDescent="1">
       <c r="B1" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
@@ -5588,12 +5403,12 @@
       <c r="K3" s="16"/>
       <c r="L3" s="17"/>
       <c r="M3" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.5">
       <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
@@ -5637,7 +5452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="20"/>
       <c r="F5" s="20"/>
@@ -5645,7 +5460,7 @@
       <c r="L5" s="20"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" s="8"/>
       <c r="C6" s="20"/>
       <c r="F6" s="20"/>
@@ -5653,7 +5468,7 @@
       <c r="L6" s="20"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" s="8"/>
       <c r="C7" s="20"/>
       <c r="F7" s="20"/>
@@ -5661,7 +5476,7 @@
       <c r="L7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" s="8"/>
       <c r="C8" s="20"/>
       <c r="F8" s="20"/>
@@ -5669,7 +5484,7 @@
       <c r="L8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" s="8"/>
       <c r="C9" s="20"/>
       <c r="F9" s="20"/>
@@ -5677,7 +5492,7 @@
       <c r="L9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="20"/>
       <c r="F10" s="20"/>
@@ -5685,7 +5500,7 @@
       <c r="L10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="20"/>
       <c r="F11" s="20"/>
@@ -5693,7 +5508,7 @@
       <c r="L11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="C12" s="20"/>
       <c r="F12" s="20"/>
@@ -5701,7 +5516,7 @@
       <c r="L12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="20"/>
       <c r="F13" s="20"/>
@@ -5709,7 +5524,7 @@
       <c r="L13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="8"/>
       <c r="C14" s="20"/>
       <c r="F14" s="20"/>
@@ -5717,7 +5532,7 @@
       <c r="L14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="20"/>
       <c r="F15" s="20"/>
@@ -5725,7 +5540,7 @@
       <c r="L15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="8"/>
       <c r="C16" s="20"/>
       <c r="F16" s="20"/>
@@ -5733,7 +5548,7 @@
       <c r="L16" s="20"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="20"/>
       <c r="F17" s="20"/>
@@ -5741,7 +5556,7 @@
       <c r="L17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" s="8"/>
       <c r="C18" s="20"/>
       <c r="F18" s="20"/>
@@ -5749,7 +5564,7 @@
       <c r="L18" s="20"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="20"/>
       <c r="F19" s="20"/>
@@ -5757,7 +5572,7 @@
       <c r="L19" s="20"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" s="8"/>
       <c r="C20" s="20"/>
       <c r="F20" s="20"/>
@@ -5765,7 +5580,7 @@
       <c r="L20" s="20"/>
       <c r="O20" s="20"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="20"/>
       <c r="F21" s="20"/>
@@ -5773,7 +5588,7 @@
       <c r="L21" s="20"/>
       <c r="O21" s="20"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" s="8"/>
       <c r="C22" s="20"/>
       <c r="F22" s="20"/>
@@ -5781,7 +5596,7 @@
       <c r="L22" s="20"/>
       <c r="O22" s="20"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="20"/>
       <c r="F23" s="20"/>
@@ -5789,7 +5604,7 @@
       <c r="L23" s="20"/>
       <c r="O23" s="20"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" s="8"/>
       <c r="C24" s="20"/>
       <c r="F24" s="20"/>
@@ -5797,7 +5612,7 @@
       <c r="L24" s="20"/>
       <c r="O24" s="20"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="20"/>
       <c r="F25" s="20"/>
@@ -5805,7 +5620,7 @@
       <c r="L25" s="20"/>
       <c r="O25" s="20"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="20"/>
       <c r="F26" s="20"/>
@@ -5813,7 +5628,7 @@
       <c r="L26" s="20"/>
       <c r="O26" s="20"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="20"/>
       <c r="F27" s="20"/>
@@ -5821,7 +5636,7 @@
       <c r="L27" s="20"/>
       <c r="O27" s="20"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="20"/>
       <c r="F28" s="20"/>
@@ -5829,7 +5644,7 @@
       <c r="L28" s="20"/>
       <c r="O28" s="20"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="20"/>
       <c r="F29" s="20"/>
@@ -5837,7 +5652,7 @@
       <c r="L29" s="20"/>
       <c r="O29" s="20"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="20"/>
       <c r="F30" s="20"/>
@@ -5845,7 +5660,7 @@
       <c r="L30" s="20"/>
       <c r="O30" s="20"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="20"/>
       <c r="F31" s="20"/>
@@ -5853,7 +5668,7 @@
       <c r="L31" s="20"/>
       <c r="O31" s="20"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" s="8"/>
       <c r="C32" s="20"/>
       <c r="F32" s="20"/>
@@ -5861,7 +5676,7 @@
       <c r="L32" s="20"/>
       <c r="O32" s="20"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="20"/>
       <c r="F33" s="20"/>
@@ -5869,7 +5684,7 @@
       <c r="L33" s="20"/>
       <c r="O33" s="20"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
       <c r="C34" s="20"/>
       <c r="F34" s="20"/>
@@ -5877,7 +5692,7 @@
       <c r="L34" s="20"/>
       <c r="O34" s="20"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="20"/>
       <c r="F35" s="20"/>
@@ -5885,7 +5700,7 @@
       <c r="L35" s="20"/>
       <c r="O35" s="20"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" s="8"/>
       <c r="C36" s="20"/>
       <c r="F36" s="20"/>
@@ -5893,7 +5708,7 @@
       <c r="L36" s="20"/>
       <c r="O36" s="20"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="20"/>
       <c r="F37" s="20"/>
@@ -5901,7 +5716,7 @@
       <c r="L37" s="20"/>
       <c r="O37" s="20"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" s="8"/>
       <c r="C38" s="20"/>
       <c r="F38" s="20"/>
@@ -5909,7 +5724,7 @@
       <c r="L38" s="20"/>
       <c r="O38" s="20"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="20"/>
       <c r="F39" s="20"/>
@@ -5917,7 +5732,7 @@
       <c r="L39" s="20"/>
       <c r="O39" s="20"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" s="8"/>
       <c r="C40" s="20"/>
       <c r="F40" s="20"/>
@@ -5925,7 +5740,7 @@
       <c r="L40" s="20"/>
       <c r="O40" s="20"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" s="8"/>
       <c r="C41" s="20"/>
       <c r="F41" s="20"/>

--- a/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
+++ b/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Ecole\Session_Hiver_2025\C61_SHOGI_RAG\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crage\Desktop\C61_SHOGI_RAG\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10BC77-8494-4B1F-A2DE-25B837D5C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0940DF3-7961-4954-ACE7-69AB6A83D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="201">
   <si>
     <t>Planification globale</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>Tous les tâches dessou contribuent à la classe</t>
+  </si>
+  <si>
+    <t>creation du gameSaver</t>
+  </si>
+  <si>
+    <t>reglage de bug lier au gameSaver</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
     <numFmt numFmtId="164" formatCode="0\ %"/>
     <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,8 +705,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +736,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -821,7 +852,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -992,34 +1023,63 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -3424,7 +3484,7 @@
       <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="72" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="28"/>
@@ -3447,7 +3507,7 @@
       <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
@@ -3468,7 +3528,7 @@
       <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
@@ -3489,7 +3549,7 @@
       <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
@@ -3510,7 +3570,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
@@ -3531,7 +3591,7 @@
       <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
@@ -3552,7 +3612,7 @@
       <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="66"/>
+      <c r="F17" s="72"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
@@ -3935,7 +3995,7 @@
       <c r="K35" s="41">
         <v>1</v>
       </c>
-      <c r="L35" s="66" t="s">
+      <c r="L35" s="72" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3958,7 +4018,7 @@
       <c r="K36" s="29">
         <v>1</v>
       </c>
-      <c r="L36" s="66"/>
+      <c r="L36" s="72"/>
     </row>
     <row r="37" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="38" t="s">
@@ -3979,7 +4039,7 @@
       <c r="K37" s="29">
         <v>0.3</v>
       </c>
-      <c r="L37" s="66"/>
+      <c r="L37" s="72"/>
     </row>
     <row r="38" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="38" t="s">
@@ -4287,7 +4347,7 @@
       <c r="K53" s="29">
         <v>1</v>
       </c>
-      <c r="L53" s="67" t="s">
+      <c r="L53" s="73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4306,7 +4366,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="28"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="67"/>
+      <c r="L54" s="73"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="38" t="s">
@@ -4323,7 +4383,7 @@
       <c r="I55" s="30"/>
       <c r="J55" s="28"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="67"/>
+      <c r="L55" s="73"/>
     </row>
     <row r="56" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
@@ -4338,7 +4398,7 @@
       <c r="E56" s="29">
         <v>0.9</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="72" t="s">
         <v>138</v>
       </c>
       <c r="G56" s="28"/>
@@ -4346,7 +4406,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="28"/>
       <c r="K56" s="29"/>
-      <c r="L56" s="67"/>
+      <c r="L56" s="73"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
@@ -4361,7 +4421,7 @@
       <c r="E57" s="29">
         <v>0.9</v>
       </c>
-      <c r="F57" s="66"/>
+      <c r="F57" s="72"/>
       <c r="G57" s="28"/>
       <c r="H57" s="29"/>
       <c r="I57" s="30"/>
@@ -4382,7 +4442,7 @@
       <c r="E58" s="29">
         <v>0.9</v>
       </c>
-      <c r="F58" s="66"/>
+      <c r="F58" s="72"/>
       <c r="G58" s="28"/>
       <c r="H58" s="29"/>
       <c r="I58" s="30"/>
@@ -4403,7 +4463,7 @@
       <c r="E59" s="29">
         <v>0.9</v>
       </c>
-      <c r="F59" s="66"/>
+      <c r="F59" s="72"/>
       <c r="G59" s="28"/>
       <c r="H59" s="29"/>
       <c r="I59" s="30"/>
@@ -4424,7 +4484,7 @@
       <c r="E60" s="29">
         <v>0.9</v>
       </c>
-      <c r="F60" s="66"/>
+      <c r="F60" s="72"/>
       <c r="G60" s="28"/>
       <c r="H60" s="29"/>
       <c r="I60" s="30"/>
@@ -4445,7 +4505,7 @@
       <c r="E61" s="29">
         <v>0.9</v>
       </c>
-      <c r="F61" s="66"/>
+      <c r="F61" s="72"/>
       <c r="G61" s="28"/>
       <c r="H61" s="29"/>
       <c r="I61" s="30"/>
@@ -4466,7 +4526,7 @@
       <c r="E62" s="29">
         <v>0.9</v>
       </c>
-      <c r="F62" s="66"/>
+      <c r="F62" s="72"/>
       <c r="G62" s="28"/>
       <c r="H62" s="29"/>
       <c r="I62" s="30"/>
@@ -4487,7 +4547,7 @@
       <c r="E63" s="29">
         <v>0.9</v>
       </c>
-      <c r="F63" s="66"/>
+      <c r="F63" s="72"/>
       <c r="G63" s="28"/>
       <c r="H63" s="29"/>
       <c r="I63" s="30"/>
@@ -4508,7 +4568,7 @@
       <c r="E64" s="29">
         <v>0.9</v>
       </c>
-      <c r="F64" s="66"/>
+      <c r="F64" s="72"/>
       <c r="G64" s="28"/>
       <c r="H64" s="29"/>
       <c r="I64" s="30"/>
@@ -4529,7 +4589,7 @@
       <c r="E65" s="29">
         <v>0.9</v>
       </c>
-      <c r="F65" s="66"/>
+      <c r="F65" s="72"/>
       <c r="G65" s="28"/>
       <c r="H65" s="29"/>
       <c r="I65" s="30"/>
@@ -4557,7 +4617,7 @@
       <c r="H66" s="29">
         <v>1</v>
       </c>
-      <c r="I66" s="67" t="s">
+      <c r="I66" s="73" t="s">
         <v>139</v>
       </c>
       <c r="J66" s="28"/>
@@ -4572,7 +4632,7 @@
       <c r="F67" s="30"/>
       <c r="G67" s="28"/>
       <c r="H67" s="29"/>
-      <c r="I67" s="67"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="28"/>
       <c r="K67" s="29"/>
       <c r="L67" s="30"/>
@@ -4683,16 +4743,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="L53:L56"/>
+    <mergeCell ref="F56:F65"/>
+    <mergeCell ref="I66:I67"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F11:F17"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L53:L56"/>
-    <mergeCell ref="F56:F65"/>
-    <mergeCell ref="I66:I67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4703,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4721,7 +4781,7 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="69" t="s">
@@ -4744,7 +4804,7 @@
       <c r="L3" s="71"/>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="72"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="69"/>
       <c r="D4" s="3" t="s">
         <v>91</v>
@@ -5031,10 +5091,10 @@
       <c r="D18" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="67">
         <v>0.8</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="73" t="s">
         <v>198</v>
       </c>
       <c r="G18" s="28"/>
@@ -5053,11 +5113,11 @@
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="67"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="67">
         <v>1</v>
       </c>
       <c r="I19" s="27"/>
@@ -5074,14 +5134,14 @@
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="67"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="73">
-        <v>1</v>
-      </c>
-      <c r="I20" s="75"/>
+      <c r="H20" s="67">
+        <v>1</v>
+      </c>
+      <c r="I20" s="30"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
       <c r="L20" s="27"/>
@@ -5098,11 +5158,11 @@
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="75"/>
+      <c r="I21" s="30"/>
       <c r="J21" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="67">
         <v>1</v>
       </c>
       <c r="L21" s="27"/>
@@ -5120,10 +5180,10 @@
       <c r="G22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="73">
-        <v>1</v>
-      </c>
-      <c r="I22" s="75"/>
+      <c r="H22" s="67">
+        <v>1</v>
+      </c>
+      <c r="I22" s="30"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="27"/>
@@ -5151,7 +5211,7 @@
       <c r="D24" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="67">
         <v>1</v>
       </c>
       <c r="F24" s="27"/>
@@ -5172,7 +5232,7 @@
       <c r="D25" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="67">
         <v>1</v>
       </c>
       <c r="F25" s="27"/>
@@ -5193,7 +5253,7 @@
       <c r="D26" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="67">
         <v>1</v>
       </c>
       <c r="F26" s="27"/>
@@ -5214,7 +5274,7 @@
       <c r="D27" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="67">
         <v>1</v>
       </c>
       <c r="F27" s="27"/>
@@ -5248,17 +5308,17 @@
       <c r="D29" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="67">
         <v>0.3</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="67">
         <v>0.7</v>
       </c>
-      <c r="I29" s="67" t="s">
+      <c r="I29" s="73" t="s">
         <v>197</v>
       </c>
       <c r="J29" s="28"/>
@@ -5273,7 +5333,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="67"/>
+      <c r="I30" s="73"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="27"/>
@@ -5288,10 +5348,10 @@
       <c r="D31" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="67">
         <v>0.75</v>
       </c>
-      <c r="F31" s="67" t="s">
+      <c r="F31" s="73" t="s">
         <v>195</v>
       </c>
       <c r="G31" s="28"/>
@@ -5300,7 +5360,7 @@
       <c r="J31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="73">
+      <c r="K31" s="67">
         <v>1</v>
       </c>
       <c r="L31" s="27"/>
@@ -5315,17 +5375,17 @@
       <c r="D32" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="67">
         <v>0.75</v>
       </c>
-      <c r="F32" s="67"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="27"/>
       <c r="J32" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="73">
+      <c r="K32" s="67">
         <v>1</v>
       </c>
       <c r="L32" s="27"/>
@@ -5353,7 +5413,7 @@
       <c r="D34" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="67">
         <v>1</v>
       </c>
       <c r="F34" s="27"/>
@@ -5374,7 +5434,7 @@
       <c r="D35" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="67">
         <v>1</v>
       </c>
       <c r="F35" s="27"/>
@@ -5395,7 +5455,7 @@
       <c r="D36" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="67">
         <v>1</v>
       </c>
       <c r="F36" s="27"/>
@@ -5435,7 +5495,7 @@
       <c r="J38" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="73">
+      <c r="K38" s="67">
         <v>1</v>
       </c>
       <c r="L38" s="27"/>
@@ -5451,7 +5511,7 @@
       <c r="G39" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="67">
         <v>1</v>
       </c>
       <c r="I39" s="74"/>
@@ -5472,7 +5532,7 @@
       <c r="G40" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="67">
         <v>1</v>
       </c>
       <c r="I40" s="74"/>
@@ -5509,7 +5569,7 @@
       <c r="J42" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="K42" s="73">
+      <c r="K42" s="67">
         <v>1</v>
       </c>
       <c r="L42" s="27" t="s">
@@ -5542,10 +5602,10 @@
       <c r="G44" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="73">
-        <v>1</v>
-      </c>
-      <c r="I44" s="66" t="s">
+      <c r="H44" s="67">
+        <v>1</v>
+      </c>
+      <c r="I44" s="72" t="s">
         <v>193</v>
       </c>
       <c r="J44" s="28"/>
@@ -5565,10 +5625,10 @@
       <c r="G45" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="H45" s="73">
-        <v>1</v>
-      </c>
-      <c r="I45" s="66"/>
+      <c r="H45" s="67">
+        <v>1</v>
+      </c>
+      <c r="I45" s="72"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="27"/>
@@ -5586,10 +5646,10 @@
       <c r="G46" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="H46" s="73">
-        <v>1</v>
-      </c>
-      <c r="I46" s="66"/>
+      <c r="H46" s="67">
+        <v>1</v>
+      </c>
+      <c r="I46" s="72"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="27"/>
@@ -5607,10 +5667,10 @@
       <c r="G47" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="H47" s="73">
-        <v>1</v>
-      </c>
-      <c r="I47" s="66"/>
+      <c r="H47" s="67">
+        <v>1</v>
+      </c>
+      <c r="I47" s="72"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="27"/>
@@ -5628,10 +5688,10 @@
       <c r="G48" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="H48" s="73">
-        <v>1</v>
-      </c>
-      <c r="I48" s="66"/>
+      <c r="H48" s="67">
+        <v>1</v>
+      </c>
+      <c r="I48" s="72"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="27"/>
@@ -5943,16 +6003,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="I44:I48"/>
     <mergeCell ref="I39:I40"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5964,16 +6024,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" customWidth="1"/>
@@ -6019,13 +6080,13 @@
       <c r="C4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="66" t="s">
         <v>90</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -6056,236 +6117,390 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" s="22" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="79">
+        <v>1</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="80"/>
+    </row>
+    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="83"/>
+      <c r="D6" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="79">
+        <v>0.33</v>
+      </c>
+      <c r="F6" s="85"/>
+      <c r="G6" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="79">
+        <v>0.66</v>
+      </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="79">
+        <v>1</v>
+      </c>
+      <c r="L6" s="85"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="85"/>
+    </row>
+    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="N7" s="79">
+        <v>1</v>
+      </c>
+      <c r="O7" s="85"/>
+    </row>
+    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="21"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="21"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="21"/>
+      <c r="K8" s="76"/>
       <c r="L8" s="21"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="21"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="21"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="21"/>
+      <c r="K9" s="76"/>
       <c r="L9" s="21"/>
+      <c r="N9" s="76"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="21"/>
+      <c r="E10" s="76"/>
       <c r="F10" s="21"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="21"/>
+      <c r="K10" s="76"/>
       <c r="L10" s="21"/>
+      <c r="N10" s="76"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="21"/>
+      <c r="E11" s="76"/>
       <c r="F11" s="21"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="21"/>
+      <c r="K11" s="76"/>
       <c r="L11" s="21"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="21"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="21"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="21"/>
+      <c r="K12" s="76"/>
       <c r="L12" s="21"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="21"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="21"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="21"/>
+      <c r="K13" s="76"/>
       <c r="L13" s="21"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="21"/>
+      <c r="E14" s="76"/>
       <c r="F14" s="21"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="21"/>
+      <c r="K14" s="76"/>
       <c r="L14" s="21"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="21"/>
+      <c r="E15" s="76"/>
       <c r="F15" s="21"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="21"/>
+      <c r="K15" s="76"/>
       <c r="L15" s="21"/>
+      <c r="N15" s="76"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="21"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="21"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="21"/>
+      <c r="K16" s="76"/>
       <c r="L16" s="21"/>
+      <c r="N16" s="76"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="21"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="21"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="21"/>
+      <c r="K17" s="76"/>
       <c r="L17" s="21"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="21"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="21"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="21"/>
+      <c r="K18" s="76"/>
       <c r="L18" s="21"/>
+      <c r="N18" s="76"/>
       <c r="O18" s="21"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="21"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="21"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="21"/>
+      <c r="K19" s="76"/>
       <c r="L19" s="21"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="21"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="21"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="21"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="21"/>
+      <c r="K20" s="76"/>
       <c r="L20" s="21"/>
+      <c r="N20" s="76"/>
       <c r="O20" s="21"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="21"/>
+      <c r="E21" s="76"/>
       <c r="F21" s="21"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="21"/>
+      <c r="K21" s="76"/>
       <c r="L21" s="21"/>
+      <c r="N21" s="76"/>
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="21"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="21"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="21"/>
+      <c r="K22" s="76"/>
       <c r="L22" s="21"/>
+      <c r="N22" s="76"/>
       <c r="O22" s="21"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="21"/>
+      <c r="E23" s="76"/>
       <c r="F23" s="21"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="21"/>
+      <c r="K23" s="76"/>
       <c r="L23" s="21"/>
+      <c r="N23" s="76"/>
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="21"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="21"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="21"/>
+      <c r="K24" s="76"/>
       <c r="L24" s="21"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="21"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="21"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="21"/>
+      <c r="K25" s="76"/>
       <c r="L25" s="21"/>
+      <c r="N25" s="76"/>
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
       <c r="C26" s="21"/>
+      <c r="E26" s="76"/>
       <c r="F26" s="21"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="21"/>
+      <c r="K26" s="76"/>
       <c r="L26" s="21"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="21"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="21"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="21"/>
+      <c r="K27" s="76"/>
       <c r="L27" s="21"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="21"/>
+      <c r="E28" s="76"/>
       <c r="F28" s="21"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="21"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="21"/>
+      <c r="N28" s="76"/>
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="21"/>
+      <c r="E29" s="76"/>
       <c r="F29" s="21"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="21"/>
+      <c r="K29" s="76"/>
       <c r="L29" s="21"/>
+      <c r="N29" s="76"/>
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="21"/>
+      <c r="E30" s="76"/>
       <c r="F30" s="21"/>
+      <c r="H30" s="76"/>
       <c r="I30" s="21"/>
+      <c r="K30" s="76"/>
       <c r="L30" s="21"/>
+      <c r="N30" s="76"/>
       <c r="O30" s="21"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="21"/>
+      <c r="E31" s="76"/>
       <c r="F31" s="21"/>
+      <c r="H31" s="76"/>
       <c r="I31" s="21"/>
+      <c r="K31" s="76"/>
       <c r="L31" s="21"/>
+      <c r="N31" s="76"/>
       <c r="O31" s="21"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="21"/>
       <c r="F32" s="21"/>
+      <c r="H32" s="76"/>
       <c r="I32" s="21"/>
+      <c r="K32" s="76"/>
       <c r="L32" s="21"/>
+      <c r="N32" s="76"/>
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="21"/>
       <c r="F33" s="21"/>
+      <c r="H33" s="76"/>
       <c r="I33" s="21"/>
+      <c r="K33" s="76"/>
       <c r="L33" s="21"/>
+      <c r="N33" s="76"/>
       <c r="O33" s="21"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -6293,7 +6508,9 @@
       <c r="C34" s="21"/>
       <c r="F34" s="21"/>
       <c r="I34" s="21"/>
+      <c r="K34" s="76"/>
       <c r="L34" s="21"/>
+      <c r="N34" s="76"/>
       <c r="O34" s="21"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -6302,6 +6519,7 @@
       <c r="F35" s="21"/>
       <c r="I35" s="21"/>
       <c r="L35" s="21"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="21"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">

--- a/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
+++ b/doc/C61_-_Sprint_1_-_Document_de_planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crage\Desktop\C61_SHOGI_RAG\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\Ecole\Session_Hiver_2025\C61_SHOGI_RAG\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0940DF3-7961-4954-ACE7-69AB6A83D9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4A3AEB-2D2A-4B09-96F8-6B9EE593F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="205">
   <si>
     <t>Planification globale</t>
   </si>
@@ -632,6 +632,18 @@
   </si>
   <si>
     <t>reglage de bug lier au gameSaver</t>
+  </si>
+  <si>
+    <t>Reglage de bug lier au pièces</t>
+  </si>
+  <si>
+    <t>Reglage de bug, Minimax ne jouait plus</t>
+  </si>
+  <si>
+    <t>Ménage de code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retiré les commentaires non pertinent, tabulations et espaces ajusté </t>
   </si>
 </sst>
 </file>
@@ -706,20 +718,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,14 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -846,13 +852,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,6 +1036,12 @@
     <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,49 +1054,49 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Excel Built-in Neutral" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Excel Built-in Neutral 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Neutre" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -3297,32 +3310,32 @@
     </row>
     <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
-      <c r="B3" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="21"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="3" t="s">
         <v>98</v>
       </c>
@@ -3484,7 +3497,7 @@
       <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="68" t="s">
         <v>103</v>
       </c>
       <c r="G11" s="28"/>
@@ -3507,7 +3520,7 @@
       <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="72"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="28"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
@@ -3528,7 +3541,7 @@
       <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="72"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="28"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
@@ -3549,7 +3562,7 @@
       <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="72"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
@@ -3570,7 +3583,7 @@
       <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="68"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
@@ -3591,7 +3604,7 @@
       <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="28"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
@@ -3612,7 +3625,7 @@
       <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="72"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
@@ -3995,7 +4008,7 @@
       <c r="K35" s="41">
         <v>1</v>
       </c>
-      <c r="L35" s="72" t="s">
+      <c r="L35" s="68" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4018,7 +4031,7 @@
       <c r="K36" s="29">
         <v>1</v>
       </c>
-      <c r="L36" s="72"/>
+      <c r="L36" s="68"/>
     </row>
     <row r="37" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="38" t="s">
@@ -4039,7 +4052,7 @@
       <c r="K37" s="29">
         <v>0.3</v>
       </c>
-      <c r="L37" s="72"/>
+      <c r="L37" s="68"/>
     </row>
     <row r="38" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="38" t="s">
@@ -4347,7 +4360,7 @@
       <c r="K53" s="29">
         <v>1</v>
       </c>
-      <c r="L53" s="73" t="s">
+      <c r="L53" s="69" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4366,7 +4379,7 @@
       <c r="I54" s="30"/>
       <c r="J54" s="28"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="73"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="38" t="s">
@@ -4383,7 +4396,7 @@
       <c r="I55" s="30"/>
       <c r="J55" s="28"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="73"/>
+      <c r="L55" s="69"/>
     </row>
     <row r="56" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
@@ -4398,7 +4411,7 @@
       <c r="E56" s="29">
         <v>0.9</v>
       </c>
-      <c r="F56" s="72" t="s">
+      <c r="F56" s="68" t="s">
         <v>138</v>
       </c>
       <c r="G56" s="28"/>
@@ -4406,7 +4419,7 @@
       <c r="I56" s="30"/>
       <c r="J56" s="28"/>
       <c r="K56" s="29"/>
-      <c r="L56" s="73"/>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="38" t="s">
@@ -4421,7 +4434,7 @@
       <c r="E57" s="29">
         <v>0.9</v>
       </c>
-      <c r="F57" s="72"/>
+      <c r="F57" s="68"/>
       <c r="G57" s="28"/>
       <c r="H57" s="29"/>
       <c r="I57" s="30"/>
@@ -4442,7 +4455,7 @@
       <c r="E58" s="29">
         <v>0.9</v>
       </c>
-      <c r="F58" s="72"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="28"/>
       <c r="H58" s="29"/>
       <c r="I58" s="30"/>
@@ -4463,7 +4476,7 @@
       <c r="E59" s="29">
         <v>0.9</v>
       </c>
-      <c r="F59" s="72"/>
+      <c r="F59" s="68"/>
       <c r="G59" s="28"/>
       <c r="H59" s="29"/>
       <c r="I59" s="30"/>
@@ -4484,7 +4497,7 @@
       <c r="E60" s="29">
         <v>0.9</v>
       </c>
-      <c r="F60" s="72"/>
+      <c r="F60" s="68"/>
       <c r="G60" s="28"/>
       <c r="H60" s="29"/>
       <c r="I60" s="30"/>
@@ -4505,7 +4518,7 @@
       <c r="E61" s="29">
         <v>0.9</v>
       </c>
-      <c r="F61" s="72"/>
+      <c r="F61" s="68"/>
       <c r="G61" s="28"/>
       <c r="H61" s="29"/>
       <c r="I61" s="30"/>
@@ -4526,7 +4539,7 @@
       <c r="E62" s="29">
         <v>0.9</v>
       </c>
-      <c r="F62" s="72"/>
+      <c r="F62" s="68"/>
       <c r="G62" s="28"/>
       <c r="H62" s="29"/>
       <c r="I62" s="30"/>
@@ -4547,7 +4560,7 @@
       <c r="E63" s="29">
         <v>0.9</v>
       </c>
-      <c r="F63" s="72"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="28"/>
       <c r="H63" s="29"/>
       <c r="I63" s="30"/>
@@ -4568,7 +4581,7 @@
       <c r="E64" s="29">
         <v>0.9</v>
       </c>
-      <c r="F64" s="72"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="28"/>
       <c r="H64" s="29"/>
       <c r="I64" s="30"/>
@@ -4589,7 +4602,7 @@
       <c r="E65" s="29">
         <v>0.9</v>
       </c>
-      <c r="F65" s="72"/>
+      <c r="F65" s="68"/>
       <c r="G65" s="28"/>
       <c r="H65" s="29"/>
       <c r="I65" s="30"/>
@@ -4617,7 +4630,7 @@
       <c r="H66" s="29">
         <v>1</v>
       </c>
-      <c r="I66" s="73" t="s">
+      <c r="I66" s="69" t="s">
         <v>139</v>
       </c>
       <c r="J66" s="28"/>
@@ -4632,7 +4645,7 @@
       <c r="F67" s="30"/>
       <c r="G67" s="28"/>
       <c r="H67" s="29"/>
-      <c r="I67" s="73"/>
+      <c r="I67" s="69"/>
       <c r="J67" s="28"/>
       <c r="K67" s="29"/>
       <c r="L67" s="30"/>
@@ -4743,16 +4756,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="F11:F17"/>
     <mergeCell ref="L35:L37"/>
     <mergeCell ref="L53:L56"/>
     <mergeCell ref="F56:F65"/>
     <mergeCell ref="I66:I67"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4763,7 +4776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4781,31 +4794,31 @@
       </c>
     </row>
     <row r="3" spans="2:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71" t="s">
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
     </row>
     <row r="4" spans="2:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="75"/>
-      <c r="C4" s="69"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="3" t="s">
         <v>91</v>
       </c>
@@ -5094,7 +5107,7 @@
       <c r="E18" s="67">
         <v>0.8</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="69" t="s">
         <v>198</v>
       </c>
       <c r="G18" s="28"/>
@@ -5113,7 +5126,7 @@
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="73"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="28" t="s">
         <v>104</v>
       </c>
@@ -5134,7 +5147,7 @@
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="73"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="28" t="s">
         <v>39</v>
       </c>
@@ -5318,7 +5331,7 @@
       <c r="H29" s="67">
         <v>0.7</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="69" t="s">
         <v>197</v>
       </c>
       <c r="J29" s="28"/>
@@ -5333,7 +5346,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="69"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
       <c r="L30" s="27"/>
@@ -5351,7 +5364,7 @@
       <c r="E31" s="67">
         <v>0.75</v>
       </c>
-      <c r="F31" s="73" t="s">
+      <c r="F31" s="69" t="s">
         <v>195</v>
       </c>
       <c r="G31" s="28"/>
@@ -5378,7 +5391,7 @@
       <c r="E32" s="67">
         <v>0.75</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="28"/>
       <c r="H32" s="28"/>
       <c r="I32" s="27"/>
@@ -5514,7 +5527,7 @@
       <c r="H39" s="67">
         <v>1</v>
       </c>
-      <c r="I39" s="74"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
       <c r="L39" s="27"/>
@@ -5535,7 +5548,7 @@
       <c r="H40" s="67">
         <v>1</v>
       </c>
-      <c r="I40" s="74"/>
+      <c r="I40" s="75"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
       <c r="L40" s="27"/>
@@ -5605,7 +5618,7 @@
       <c r="H44" s="67">
         <v>1</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="68" t="s">
         <v>193</v>
       </c>
       <c r="J44" s="28"/>
@@ -5628,7 +5641,7 @@
       <c r="H45" s="67">
         <v>1</v>
       </c>
-      <c r="I45" s="72"/>
+      <c r="I45" s="68"/>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
       <c r="L45" s="27"/>
@@ -5649,7 +5662,7 @@
       <c r="H46" s="67">
         <v>1</v>
       </c>
-      <c r="I46" s="72"/>
+      <c r="I46" s="68"/>
       <c r="J46" s="28"/>
       <c r="K46" s="28"/>
       <c r="L46" s="27"/>
@@ -5670,7 +5683,7 @@
       <c r="H47" s="67">
         <v>1</v>
       </c>
-      <c r="I47" s="72"/>
+      <c r="I47" s="68"/>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
       <c r="L47" s="27"/>
@@ -5691,7 +5704,7 @@
       <c r="H48" s="67">
         <v>1</v>
       </c>
-      <c r="I48" s="72"/>
+      <c r="I48" s="68"/>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
       <c r="L48" s="27"/>
@@ -6003,16 +6016,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F18:F20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -6022,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:O41"/>
+  <dimension ref="B1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6033,15 +6046,7 @@
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="4" max="15" width="19" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="46.5" x14ac:dyDescent="0.7">
@@ -6052,26 +6057,28 @@
     <row r="3" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
     </row>
     <row r="4" spans="2:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
@@ -6083,494 +6090,722 @@
       <c r="D4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="66" t="s">
-        <v>89</v>
-      </c>
+      <c r="E4" s="71"/>
       <c r="F4" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="22" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="2:15" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="79">
-        <v>1</v>
-      </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="80"/>
-    </row>
-    <row r="6" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="82" t="s">
+      <c r="E5" s="78">
+        <v>1</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="2:15" s="22" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="83"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="76"/>
+    </row>
+    <row r="7" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="84" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E7" s="78">
         <v>0.33</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="84" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H7" s="78">
         <v>0.66</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="84" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="K6" s="79">
-        <v>1</v>
-      </c>
-      <c r="L6" s="85"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="85"/>
-    </row>
-    <row r="7" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="82" t="s">
+      <c r="K7" s="78">
+        <v>1</v>
+      </c>
+      <c r="L7" s="81"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="81"/>
+    </row>
+    <row r="8" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="84" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="N7" s="79">
-        <v>1</v>
-      </c>
-      <c r="O7" s="85"/>
-    </row>
-    <row r="8" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="21"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="21"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="21"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="21"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="21"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="21"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="21"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="21"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="10" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="21"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="21"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="21"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="21"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="21"/>
-    </row>
-    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="21"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="21"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="21"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="21"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="21"/>
-    </row>
-    <row r="12" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="21"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="21"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="21"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="21"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="21"/>
-    </row>
-    <row r="13" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="21"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="21"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="21"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="21"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="21"/>
-    </row>
-    <row r="14" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="21"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="21"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="21"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="21"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="21"/>
-    </row>
-    <row r="15" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="21"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="21"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="21"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="21"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="21"/>
-    </row>
-    <row r="16" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="21"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="21"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="21"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="21"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="21"/>
-    </row>
-    <row r="17" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="21"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="21"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="21"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="21"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="21"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="21"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="21"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="21"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="21"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="21"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="21"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="21"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="21"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="21"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="21"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="21"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="21"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="21"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="21"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="21"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="21"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="21"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="21"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="21"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="21"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="21"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="21"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="21"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="21"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="21"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="21"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="21"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="21"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="21"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="21"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="21"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="21"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="21"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="21"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="21"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="21"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="21"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="21"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="21"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="21"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="21"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="21"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="21"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="21"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="21"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="21"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="21"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="21"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="21"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="21"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="21"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="21"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="21"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="21"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="21"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="21"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="21"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="21"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="21"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="21"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="21"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="21"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="21"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="21"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="21"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="21"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="21"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="21"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="21"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="21"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="21"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="21"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="O36" s="21"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="O37" s="21"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="O38" s="21"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="O39" s="21"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="O40" s="21"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="O41" s="21"/>
+      <c r="N8" s="78">
+        <v>1</v>
+      </c>
+      <c r="O8" s="81"/>
+    </row>
+    <row r="9" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="81"/>
+    </row>
+    <row r="10" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="86">
+        <v>1</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="84"/>
+    </row>
+    <row r="11" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="86">
+        <v>1</v>
+      </c>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="84"/>
+    </row>
+    <row r="12" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="82" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="85"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="86">
+        <v>1</v>
+      </c>
+      <c r="L12" s="87"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="84"/>
+    </row>
+    <row r="13" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="82"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="84"/>
+    </row>
+    <row r="14" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="82"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="84"/>
+    </row>
+    <row r="15" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="82"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="84"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="84"/>
+    </row>
+    <row r="17" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="84"/>
+    </row>
+    <row r="18" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="84"/>
+    </row>
+    <row r="19" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="84"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="84"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="82"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="84"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="82"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="84"/>
+    </row>
+    <row r="23" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="82"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="84"/>
+    </row>
+    <row r="24" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="82"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="84"/>
+    </row>
+    <row r="25" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="82"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="84"/>
+    </row>
+    <row r="26" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="82"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="84"/>
+    </row>
+    <row r="27" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="82"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="84"/>
+    </row>
+    <row r="28" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="82"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="84"/>
+    </row>
+    <row r="29" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="82"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="84"/>
+    </row>
+    <row r="30" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="82"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="84"/>
+    </row>
+    <row r="31" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="82"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="84"/>
+    </row>
+    <row r="32" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="82"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="84"/>
+    </row>
+    <row r="33" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="82"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="84"/>
+    </row>
+    <row r="34" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="82"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="84"/>
+    </row>
+    <row r="35" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="82"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="84"/>
+    </row>
+    <row r="36" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="82"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="84"/>
+    </row>
+    <row r="37" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="82"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="86"/>
+      <c r="O37" s="84"/>
+    </row>
+    <row r="38" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="82"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="84"/>
+    </row>
+    <row r="39" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="82"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="84"/>
+    </row>
+    <row r="40" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="82"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="84"/>
+    </row>
+    <row r="41" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="82"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="84"/>
+    </row>
+    <row r="42" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="82"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="84"/>
+    </row>
+    <row r="43" spans="2:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="82"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="84"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L10:L13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
